--- a/objects.xlsx
+++ b/objects.xlsx
@@ -23,6 +23,296 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+  <si>
+    <t xml:space="preserve">Objet : </t>
+  </si>
+  <si>
+    <t>Attr :</t>
+  </si>
+  <si>
+    <t>Functions :</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>user.php</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_present</t>
+  </si>
+  <si>
+    <t>img_banner</t>
+  </si>
+  <si>
+    <t>date_registration</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_mail</t>
+  </si>
+  <si>
+    <t>user_firstname</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>id unique</t>
+  </si>
+  <si>
+    <t>nom de fichier</t>
+  </si>
+  <si>
+    <t>date format texte</t>
+  </si>
+  <si>
+    <t>adresse format texte</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nom de famille</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>panier associé</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>aucun</t>
+  </si>
+  <si>
+    <t>userModel &gt; updateUser(user)</t>
+  </si>
+  <si>
+    <t>piece.php</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>img_slide</t>
+  </si>
+  <si>
+    <t>nom de fichier, nom de fichier…</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>string array</t>
+  </si>
+  <si>
+    <t>tab associatif : valeur = false</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>prix du meuble</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>int array</t>
+  </si>
+  <si>
+    <t>tab associatif : Larg = 155</t>
+  </si>
+  <si>
+    <t>updatePiece</t>
+  </si>
+  <si>
+    <t>style.php</t>
+  </si>
+  <si>
+    <t>color_overlay</t>
+  </si>
+  <si>
+    <t>Couleur par-dessus l'image</t>
+  </si>
+  <si>
+    <t>updateStyle</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>styleModel &gt; updateStyle(style)</t>
+  </si>
+  <si>
+    <t>pieceModel &gt; updatePiece(piece)</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>type.php</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>updateType</t>
+  </si>
+  <si>
+    <t>typeModel &gt; updateType(type)</t>
+  </si>
+  <si>
+    <t>comment.php</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>post_date</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Nombre d'étoiles</t>
+  </si>
+  <si>
+    <t>post_text</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Créateur</t>
+  </si>
+  <si>
+    <t>cart.php</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>tab id cart_relation</t>
+  </si>
+  <si>
+    <t>addItem</t>
+  </si>
+  <si>
+    <t>cartRelation</t>
+  </si>
+  <si>
+    <t>removeItem</t>
+  </si>
+  <si>
+    <t>makePrice</t>
+  </si>
+  <si>
+    <t>retourne le prix total</t>
+  </si>
+  <si>
+    <t>getItem</t>
+  </si>
+  <si>
+    <t>index, id</t>
+  </si>
+  <si>
+    <t>retourne l'item</t>
+  </si>
+  <si>
+    <t>cartRelation.php</t>
+  </si>
+  <si>
+    <t>CartRelation</t>
+  </si>
+  <si>
+    <t>quantité selectionnée</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>getPiece</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>retourne le meuble</t>
+  </si>
+  <si>
+    <t>updateCartRelation</t>
+  </si>
+  <si>
+    <t>cartRelationModel &gt; updateRelation(cartrelation)</t>
+  </si>
+  <si>
+    <t>id_piece</t>
+  </si>
+  <si>
+    <t>référence meuble</t>
+  </si>
+  <si>
+    <t>nom du meuble</t>
+  </si>
+  <si>
+    <t>marque</t>
+  </si>
+  <si>
+    <t>nombre restant</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -34,12 +324,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +386,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +675,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="O20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/objects.xlsx
+++ b/objects.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t xml:space="preserve">Objet : </t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>convertDH</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Converti le décimal en hexa</t>
+  </si>
+  <si>
+    <t>convertHD</t>
+  </si>
+  <si>
+    <t>hexa</t>
+  </si>
+  <si>
+    <t>Converti le hexa en decimal</t>
   </si>
 </sst>
 </file>
@@ -677,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,9 +1007,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="O9" s="6"/>
@@ -1018,6 +1042,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
         <v>74</v>
@@ -1044,14 +1080,12 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
         <v>76</v>
@@ -1072,16 +1106,6 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1096,18 +1120,12 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
@@ -1126,16 +1144,14 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="O14" s="7"/>
@@ -1154,15 +1170,17 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1180,13 +1198,13 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1215,9 +1233,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="O17" s="7"/>
@@ -1244,17 +1268,15 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="H18" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1310,6 +1332,20 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="O20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1338,14 +1374,12 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7" t="s">
         <v>83</v>
@@ -1372,16 +1406,6 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1402,18 +1426,12 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
@@ -1430,16 +1448,14 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="I24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
@@ -1456,15 +1472,17 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I25" s="5" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1484,13 +1502,13 @@
       <c r="F26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1508,18 +1526,18 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1534,16 +1552,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1556,12 +1576,18 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1574,6 +1600,16 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1582,6 +1618,12 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\athome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projet\athome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t xml:space="preserve">Objet : </t>
   </si>
@@ -101,15 +101,9 @@
     <t>panier associé</t>
   </si>
   <si>
-    <t>updateUser</t>
-  </si>
-  <si>
     <t>aucun</t>
   </si>
   <si>
-    <t>userModel &gt; updateUser(user)</t>
-  </si>
-  <si>
     <t>piece.php</t>
   </si>
   <si>
@@ -284,12 +278,6 @@
     <t>retourne le meuble</t>
   </si>
   <si>
-    <t>updateCartRelation</t>
-  </si>
-  <si>
-    <t>cartRelationModel &gt; updateRelation(cartrelation)</t>
-  </si>
-  <si>
     <t>id_piece</t>
   </si>
   <si>
@@ -309,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mot de passe</t>
   </si>
 </sst>
 </file>
@@ -678,7 +672,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +700,7 @@
       <c r="F1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -714,7 +708,7 @@
       <c r="M1" s="4"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -746,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -824,13 +818,13 @@
       <c r="M4" s="4"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -850,19 +844,19 @@
       <c r="F5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>13</v>
@@ -886,7 +880,7 @@
       <c r="F6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>14</v>
@@ -925,15 +919,9 @@
       <c r="O7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
@@ -954,22 +942,22 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -996,10 +984,10 @@
       <c r="M9" s="4"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1020,13 +1008,13 @@
       <c r="F10" s="3"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1046,7 +1034,7 @@
       <c r="F11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1054,29 +1042,35 @@
       <c r="M11" s="2"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1112,18 +1106,10 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="2"/>
@@ -1140,7 +1126,7 @@
       <c r="M14" s="2"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1156,13 +1142,13 @@
       <c r="F15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1170,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1180,7 +1166,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>14</v>
@@ -1208,7 +1194,7 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1222,13 +1208,13 @@
       <c r="M17" s="2"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -1238,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1248,19 +1234,19 @@
         <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>23</v>
@@ -1313,34 +1299,28 @@
       <c r="O20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1348,13 +1328,13 @@
       <c r="M21" s="5"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -1362,13 +1342,13 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1376,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1392,13 +1372,13 @@
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1420,19 +1400,19 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>14</v>
@@ -1446,25 +1426,25 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1472,25 +1452,25 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1498,25 +1478,25 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1524,19 +1504,19 @@
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>13</v>
@@ -1548,7 +1528,7 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>23</v>
@@ -1566,7 +1546,7 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -1585,16 +1565,16 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
